--- a/biology/Histoire de la zoologie et de la botanique/François_Mocquard/François_Mocquard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Mocquard/François_Mocquard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Mocquard</t>
+          <t>François_Mocquard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Mocquard est un herpétologiste français, né le 27 octobre 1834 et mort le 19 mars 1917.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Mocquard</t>
+          <t>François_Mocquard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mocquard a enseigné la physique et la science jusqu'en 1877 au lycée de Vesoul.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Mocquard</t>
+          <t>François_Mocquard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Quelques Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ansonia fuliginea
 Ansonia spinulifer
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Mocquard</t>
+          <t>François_Mocquard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mocquard, F.: Recherches anatomiques sur l'estomac des crustacés podophtalmaires.	Paris Masson, (1883)
 Mocquard, F.: Contribution à la faune herpétologique de la Basse-Californie. Paris Muséum d'histoire naturelle, (1899)
